--- a/nriss-patch-1/ig/ValueSet-tddui-encounter-participant-vs.xlsx
+++ b/nriss-patch-1/ig/ValueSet-tddui-encounter-participant-vs.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T08:22:07+00:00</t>
+    <t>2025-12-19T09:47:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -118,7 +118,7 @@
     <t>ValueSet URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-participant-type</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-participant-type|4.0.1</t>
   </si>
 </sst>
 </file>
